--- a/数据整理/stocks/A股/上证主板/600179-安通控股.xlsx
+++ b/数据整理/stocks/A股/上证主板/600179-安通控股.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,17 +557,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -576,13 +597,103 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证现代物流交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600179-安通控股.xlsx
+++ b/数据整理/stocks/A股/上证主板/600179-安通控股.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -640,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,17 +652,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -671,14 +692,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证现代物流交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
@@ -687,13 +782,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600179-安通控股.xlsx
+++ b/数据整理/stocks/A股/上证主板/600179-安通控股.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,46 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>516910</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国中证现代物流交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.17</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0182</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -608,26 +598,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.43</t>
+          <t>98.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0199</t>
+          <t>0.0321</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -702,26 +692,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.62</t>
+          <t>98.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0321</t>
+          <t>0.0199</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -735,7 +725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -746,17 +736,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -766,46 +776,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.02</v>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证现代物流交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600179-安通控股.xlsx
+++ b/数据整理/stocks/A股/上证主板/600179-安通控股.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -537,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,36 +605,74 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>516530</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华中证现代物流ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>516910</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国中证现代物流交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.62</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0321</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证现代物流ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -692,26 +747,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.43</t>
+          <t>98.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0199</t>
+          <t>0.0321</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -786,6 +841,100 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证现代物流交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>0.39</t>
         </is>
       </c>
